--- a/GradeDistributionsDB/Summer2014/Output/Summer2014 EL.xlsx
+++ b/GradeDistributionsDB/Summer2014/Output/Summer2014 EL.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="114">
   <si>
     <t>Course</t>
   </si>
@@ -145,6 +145,18 @@
     <t>27.27%</t>
   </si>
   <si>
+    <t>DOWNEY M</t>
+  </si>
+  <si>
+    <t>41.67%</t>
+  </si>
+  <si>
+    <t>16.67%</t>
+  </si>
+  <si>
+    <t>8.33%</t>
+  </si>
+  <si>
     <t>10.00%</t>
   </si>
   <si>
@@ -244,18 +256,12 @@
     <t>62.50%</t>
   </si>
   <si>
-    <t>8.33%</t>
-  </si>
-  <si>
     <t>ELIL-300</t>
   </si>
   <si>
     <t>CARRUTHERS S</t>
   </si>
   <si>
-    <t>41.67%</t>
-  </si>
-  <si>
     <t>30.56%</t>
   </si>
   <si>
@@ -338,9 +344,6 @@
   </si>
   <si>
     <t>38.89%</t>
-  </si>
-  <si>
-    <t>16.67%</t>
   </si>
   <si>
     <t>ELIV-250</t>
@@ -689,7 +692,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H82"/>
+  <dimension ref="A1:H83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -929,503 +932,503 @@
     </row>
     <row r="17" spans="1:8">
       <c r="B17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" t="n">
+        <v>2</v>
+      </c>
+      <c r="D17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" t="s">
+        <v>44</v>
+      </c>
+      <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="B18" t="s">
         <v>28</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C18" t="n">
         <v>1.8</v>
       </c>
-      <c r="D17" t="s">
-        <v>18</v>
-      </c>
-      <c r="E17" t="s">
+      <c r="D18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" t="s">
         <v>15</v>
       </c>
-      <c r="F17" t="s">
-        <v>43</v>
-      </c>
-      <c r="G17" t="s">
-        <v>43</v>
-      </c>
-      <c r="H17" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" t="s">
-        <v>45</v>
+      <c r="F18" t="s">
+        <v>47</v>
+      </c>
+      <c r="G18" t="s">
+        <v>47</v>
+      </c>
+      <c r="H18" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:8">
-      <c r="B20" t="s">
-        <v>46</v>
-      </c>
-      <c r="C20" t="n">
+      <c r="A20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="B21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" t="n">
         <v>2.875</v>
       </c>
-      <c r="D20" t="s">
-        <v>47</v>
-      </c>
-      <c r="E20" t="s">
-        <v>48</v>
-      </c>
-      <c r="F20" t="s">
-        <v>48</v>
-      </c>
-      <c r="G20" t="s">
-        <v>49</v>
-      </c>
-      <c r="H20" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" t="s">
-        <v>50</v>
+      <c r="D21" t="s">
+        <v>51</v>
+      </c>
+      <c r="E21" t="s">
+        <v>52</v>
+      </c>
+      <c r="F21" t="s">
+        <v>52</v>
+      </c>
+      <c r="G21" t="s">
+        <v>53</v>
+      </c>
+      <c r="H21" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="B23" t="s">
-        <v>51</v>
-      </c>
-      <c r="C23" t="n">
+      <c r="A23" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="B24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" t="n">
         <v>2.389</v>
       </c>
-      <c r="D23" t="s">
-        <v>18</v>
-      </c>
-      <c r="E23" t="s">
-        <v>52</v>
-      </c>
-      <c r="F23" t="s">
-        <v>53</v>
-      </c>
-      <c r="G23" t="s">
+      <c r="D24" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24" t="s">
+        <v>56</v>
+      </c>
+      <c r="F24" t="s">
+        <v>57</v>
+      </c>
+      <c r="G24" t="s">
         <v>16</v>
       </c>
-      <c r="H23" t="s">
+      <c r="H24" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
-      <c r="A25" t="s">
-        <v>54</v>
-      </c>
-    </row>
     <row r="26" spans="1:8">
-      <c r="B26" t="s">
+      <c r="A26" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="B27" t="s">
         <v>32</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C27" t="n">
         <v>2.619</v>
       </c>
-      <c r="D26" t="s">
-        <v>55</v>
-      </c>
-      <c r="E26" t="s">
-        <v>56</v>
-      </c>
-      <c r="F26" t="s">
-        <v>57</v>
-      </c>
-      <c r="G26" t="s">
-        <v>55</v>
-      </c>
-      <c r="H26" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" t="s">
-        <v>58</v>
+      <c r="D27" t="s">
+        <v>59</v>
+      </c>
+      <c r="E27" t="s">
+        <v>60</v>
+      </c>
+      <c r="F27" t="s">
+        <v>61</v>
+      </c>
+      <c r="G27" t="s">
+        <v>59</v>
+      </c>
+      <c r="H27" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="29" spans="1:8">
-      <c r="B29" t="s">
+      <c r="A29" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="B30" t="s">
         <v>37</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C30" t="n">
         <v>2.533</v>
       </c>
-      <c r="D29" t="s">
-        <v>59</v>
-      </c>
-      <c r="E29" t="s">
-        <v>60</v>
-      </c>
-      <c r="F29" t="s">
-        <v>59</v>
-      </c>
-      <c r="G29" t="s">
-        <v>61</v>
-      </c>
-      <c r="H29" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" t="s">
+      <c r="D30" t="s">
         <v>63</v>
       </c>
+      <c r="E30" t="s">
+        <v>64</v>
+      </c>
+      <c r="F30" t="s">
+        <v>63</v>
+      </c>
+      <c r="G30" t="s">
+        <v>65</v>
+      </c>
+      <c r="H30" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="32" spans="1:8">
-      <c r="B32" t="s">
-        <v>64</v>
-      </c>
-      <c r="C32" t="n">
+      <c r="A32" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="B33" t="s">
+        <v>68</v>
+      </c>
+      <c r="C33" t="n">
         <v>3.046</v>
       </c>
-      <c r="D32" t="s">
-        <v>65</v>
-      </c>
-      <c r="E32" t="s">
-        <v>66</v>
-      </c>
-      <c r="F32" t="s">
+      <c r="D33" t="s">
+        <v>69</v>
+      </c>
+      <c r="E33" t="s">
+        <v>70</v>
+      </c>
+      <c r="F33" t="s">
         <v>35</v>
       </c>
-      <c r="G32" t="s">
+      <c r="G33" t="s">
         <v>35</v>
       </c>
-      <c r="H32" t="s">
+      <c r="H33" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
-      <c r="A34" t="s">
-        <v>67</v>
-      </c>
-    </row>
     <row r="35" spans="1:8">
-      <c r="B35" t="s">
-        <v>68</v>
-      </c>
-      <c r="C35" t="n">
-        <v>3.21</v>
-      </c>
-      <c r="D35" t="s">
-        <v>69</v>
-      </c>
-      <c r="E35" t="s">
-        <v>69</v>
-      </c>
-      <c r="F35" t="s">
-        <v>70</v>
-      </c>
-      <c r="G35" t="s">
+      <c r="A35" t="s">
         <v>71</v>
-      </c>
-      <c r="H35" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="B36" t="s">
+        <v>72</v>
+      </c>
+      <c r="C36" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="D36" t="s">
+        <v>73</v>
+      </c>
+      <c r="E36" t="s">
+        <v>73</v>
+      </c>
+      <c r="F36" t="s">
+        <v>74</v>
+      </c>
+      <c r="G36" t="s">
+        <v>75</v>
+      </c>
+      <c r="H36" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="B37" t="s">
         <v>20</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C37" t="n">
         <v>2.316</v>
       </c>
-      <c r="D36" t="s">
-        <v>70</v>
-      </c>
-      <c r="E36" t="s">
-        <v>72</v>
-      </c>
-      <c r="F36" t="s">
-        <v>72</v>
-      </c>
-      <c r="G36" t="s">
-        <v>71</v>
-      </c>
-      <c r="H36" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="A38" t="s">
-        <v>73</v>
+      <c r="D37" t="s">
+        <v>74</v>
+      </c>
+      <c r="E37" t="s">
+        <v>76</v>
+      </c>
+      <c r="F37" t="s">
+        <v>76</v>
+      </c>
+      <c r="G37" t="s">
+        <v>75</v>
+      </c>
+      <c r="H37" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="39" spans="1:8">
-      <c r="B39" t="s">
+      <c r="A39" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="B40" t="s">
+        <v>50</v>
+      </c>
+      <c r="C40" t="n">
+        <v>2.375</v>
+      </c>
+      <c r="D40" t="s">
+        <v>78</v>
+      </c>
+      <c r="E40" t="s">
+        <v>79</v>
+      </c>
+      <c r="F40" t="s">
+        <v>53</v>
+      </c>
+      <c r="G40" t="s">
         <v>46</v>
       </c>
-      <c r="C39" t="n">
-        <v>2.375</v>
-      </c>
-      <c r="D39" t="s">
-        <v>74</v>
-      </c>
-      <c r="E39" t="s">
-        <v>75</v>
-      </c>
-      <c r="F39" t="s">
-        <v>49</v>
-      </c>
-      <c r="G39" t="s">
-        <v>76</v>
-      </c>
-      <c r="H39" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
-      <c r="A41" t="s">
-        <v>77</v>
+      <c r="H40" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="42" spans="1:8">
-      <c r="B42" t="s">
-        <v>78</v>
-      </c>
-      <c r="C42" t="n">
+      <c r="A42" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="B43" t="s">
+        <v>81</v>
+      </c>
+      <c r="C43" t="n">
         <v>2.5</v>
       </c>
-      <c r="D42" t="s">
-        <v>79</v>
-      </c>
-      <c r="E42" t="s">
-        <v>76</v>
-      </c>
-      <c r="F42" t="s">
-        <v>80</v>
-      </c>
-      <c r="G42" t="s">
+      <c r="D43" t="s">
+        <v>44</v>
+      </c>
+      <c r="E43" t="s">
+        <v>46</v>
+      </c>
+      <c r="F43" t="s">
+        <v>82</v>
+      </c>
+      <c r="G43" t="s">
         <v>16</v>
       </c>
-      <c r="H42" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
-      <c r="A44" t="s">
-        <v>81</v>
+      <c r="H43" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="45" spans="1:8">
-      <c r="B45" t="s">
-        <v>82</v>
-      </c>
-      <c r="C45" t="n">
+      <c r="A45" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="B46" t="s">
+        <v>84</v>
+      </c>
+      <c r="C46" t="n">
         <v>3.25</v>
       </c>
-      <c r="D45" t="s">
-        <v>48</v>
-      </c>
-      <c r="E45" t="s">
+      <c r="D46" t="s">
+        <v>52</v>
+      </c>
+      <c r="E46" t="s">
         <v>26</v>
       </c>
-      <c r="F45" t="s">
-        <v>18</v>
-      </c>
-      <c r="G45" t="s">
-        <v>18</v>
-      </c>
-      <c r="H45" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
-      <c r="A47" t="s">
-        <v>83</v>
+      <c r="F46" t="s">
+        <v>18</v>
+      </c>
+      <c r="G46" t="s">
+        <v>18</v>
+      </c>
+      <c r="H46" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="48" spans="1:8">
-      <c r="B48" t="s">
-        <v>68</v>
-      </c>
-      <c r="C48" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="D48" t="s">
-        <v>18</v>
-      </c>
-      <c r="E48" t="s">
-        <v>84</v>
-      </c>
-      <c r="F48" t="s">
-        <v>18</v>
-      </c>
-      <c r="G48" t="s">
-        <v>18</v>
-      </c>
-      <c r="H48" t="s">
-        <v>43</v>
+      <c r="A48" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="49" spans="1:8">
       <c r="B49" t="s">
+        <v>72</v>
+      </c>
+      <c r="C49" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="D49" t="s">
+        <v>18</v>
+      </c>
+      <c r="E49" t="s">
+        <v>86</v>
+      </c>
+      <c r="F49" t="s">
+        <v>18</v>
+      </c>
+      <c r="G49" t="s">
+        <v>18</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="B50" t="s">
         <v>28</v>
       </c>
-      <c r="C49" t="n">
+      <c r="C50" t="n">
         <v>2.111</v>
       </c>
-      <c r="D49" t="s">
-        <v>18</v>
-      </c>
-      <c r="E49" t="s">
-        <v>85</v>
-      </c>
-      <c r="F49" t="s">
+      <c r="D50" t="s">
+        <v>18</v>
+      </c>
+      <c r="E50" t="s">
+        <v>87</v>
+      </c>
+      <c r="F50" t="s">
         <v>16</v>
       </c>
-      <c r="G49" t="s">
-        <v>53</v>
-      </c>
-      <c r="H49" t="s">
+      <c r="G50" t="s">
+        <v>57</v>
+      </c>
+      <c r="H50" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
-      <c r="A51" t="s">
-        <v>86</v>
-      </c>
-    </row>
     <row r="52" spans="1:8">
-      <c r="B52" t="s">
-        <v>78</v>
-      </c>
-      <c r="C52" t="n">
-        <v>2.059</v>
-      </c>
-      <c r="D52" t="s">
-        <v>18</v>
-      </c>
-      <c r="E52" t="s">
-        <v>87</v>
-      </c>
-      <c r="F52" t="s">
-        <v>12</v>
-      </c>
-      <c r="G52" t="s">
-        <v>23</v>
-      </c>
-      <c r="H52" t="s">
-        <v>23</v>
+      <c r="A52" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="53" spans="1:8">
       <c r="B53" t="s">
+        <v>81</v>
+      </c>
+      <c r="C53" t="n">
+        <v>2.059</v>
+      </c>
+      <c r="D53" t="s">
+        <v>18</v>
+      </c>
+      <c r="E53" t="s">
+        <v>89</v>
+      </c>
+      <c r="F53" t="s">
+        <v>12</v>
+      </c>
+      <c r="G53" t="s">
+        <v>23</v>
+      </c>
+      <c r="H53" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="B54" t="s">
         <v>24</v>
       </c>
-      <c r="C53" t="n">
+      <c r="C54" t="n">
         <v>2.688</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D54" t="s">
         <v>27</v>
       </c>
-      <c r="E53" t="s">
+      <c r="E54" t="s">
         <v>26</v>
       </c>
-      <c r="F53" t="s">
+      <c r="F54" t="s">
         <v>27</v>
       </c>
-      <c r="G53" t="s">
+      <c r="G54" t="s">
         <v>27</v>
       </c>
-      <c r="H53" t="s">
+      <c r="H54" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
-      <c r="A55" t="s">
-        <v>88</v>
-      </c>
-    </row>
     <row r="56" spans="1:8">
-      <c r="B56" t="s">
+      <c r="A56" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="B57" t="s">
         <v>37</v>
       </c>
-      <c r="C56" t="n">
+      <c r="C57" t="n">
         <v>2.4855</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D57" t="s">
         <v>10</v>
       </c>
-      <c r="E56" t="s">
-        <v>89</v>
-      </c>
-      <c r="F56" t="s">
-        <v>90</v>
-      </c>
-      <c r="G56" t="s">
-        <v>18</v>
-      </c>
-      <c r="H56" t="s">
+      <c r="E57" t="s">
+        <v>91</v>
+      </c>
+      <c r="F57" t="s">
+        <v>92</v>
+      </c>
+      <c r="G57" t="s">
+        <v>18</v>
+      </c>
+      <c r="H57" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="58" spans="1:8">
-      <c r="A58" t="s">
-        <v>91</v>
-      </c>
-    </row>
     <row r="59" spans="1:8">
-      <c r="B59" t="s">
-        <v>82</v>
-      </c>
-      <c r="C59" t="n">
+      <c r="A59" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="B60" t="s">
+        <v>84</v>
+      </c>
+      <c r="C60" t="n">
         <v>1.867</v>
       </c>
-      <c r="D59" t="s">
-        <v>18</v>
-      </c>
-      <c r="E59" t="s">
+      <c r="D60" t="s">
+        <v>18</v>
+      </c>
+      <c r="E60" t="s">
         <v>14</v>
       </c>
-      <c r="F59" t="s">
-        <v>59</v>
-      </c>
-      <c r="G59" t="s">
-        <v>92</v>
-      </c>
-      <c r="H59" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
-      <c r="A61" t="s">
-        <v>93</v>
+      <c r="F60" t="s">
+        <v>63</v>
+      </c>
+      <c r="G60" t="s">
+        <v>94</v>
+      </c>
+      <c r="H60" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="62" spans="1:8">
-      <c r="B62" t="s">
-        <v>68</v>
-      </c>
-      <c r="C62" t="n">
-        <v>3.435</v>
-      </c>
-      <c r="D62" t="s">
-        <v>94</v>
-      </c>
-      <c r="E62" t="s">
+      <c r="A62" t="s">
         <v>95</v>
-      </c>
-      <c r="F62" t="s">
-        <v>96</v>
-      </c>
-      <c r="G62" t="s">
-        <v>18</v>
-      </c>
-      <c r="H62" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="63" spans="1:8">
       <c r="B63" t="s">
-        <v>20</v>
+        <v>72</v>
       </c>
       <c r="C63" t="n">
-        <v>2.571</v>
+        <v>3.435</v>
       </c>
       <c r="D63" t="s">
-        <v>55</v>
+        <v>96</v>
       </c>
       <c r="E63" t="s">
         <v>97</v>
       </c>
       <c r="F63" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G63" t="s">
         <v>18</v>
@@ -1434,194 +1437,217 @@
         <v>18</v>
       </c>
     </row>
-    <row r="65" spans="1:8">
-      <c r="A65" t="s">
-        <v>98</v>
+    <row r="64" spans="1:8">
+      <c r="B64" t="s">
+        <v>20</v>
+      </c>
+      <c r="C64" t="n">
+        <v>2.571</v>
+      </c>
+      <c r="D64" t="s">
+        <v>59</v>
+      </c>
+      <c r="E64" t="s">
+        <v>99</v>
+      </c>
+      <c r="F64" t="s">
+        <v>99</v>
+      </c>
+      <c r="G64" t="s">
+        <v>18</v>
+      </c>
+      <c r="H64" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="66" spans="1:8">
-      <c r="B66" t="s">
+      <c r="A66" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="B67" t="s">
         <v>13</v>
       </c>
-      <c r="C66" t="n">
+      <c r="C67" t="n">
         <v>3</v>
       </c>
-      <c r="D66" t="s">
-        <v>60</v>
-      </c>
-      <c r="E66" t="s">
-        <v>60</v>
-      </c>
-      <c r="F66" t="s">
-        <v>99</v>
-      </c>
-      <c r="G66" t="s">
-        <v>43</v>
-      </c>
-      <c r="H66" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
-      <c r="A68" t="s">
-        <v>100</v>
+      <c r="D67" t="s">
+        <v>64</v>
+      </c>
+      <c r="E67" t="s">
+        <v>64</v>
+      </c>
+      <c r="F67" t="s">
+        <v>101</v>
+      </c>
+      <c r="G67" t="s">
+        <v>47</v>
+      </c>
+      <c r="H67" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="69" spans="1:8">
-      <c r="B69" t="s">
-        <v>101</v>
-      </c>
-      <c r="C69" t="n">
-        <v>2.625</v>
-      </c>
-      <c r="D69" t="s">
-        <v>47</v>
-      </c>
-      <c r="E69" t="s">
-        <v>48</v>
-      </c>
-      <c r="F69" t="s">
-        <v>49</v>
-      </c>
-      <c r="G69" t="s">
-        <v>49</v>
-      </c>
-      <c r="H69" t="s">
-        <v>49</v>
+      <c r="A69" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="70" spans="1:8">
       <c r="B70" t="s">
+        <v>103</v>
+      </c>
+      <c r="C70" t="n">
+        <v>2.625</v>
+      </c>
+      <c r="D70" t="s">
+        <v>51</v>
+      </c>
+      <c r="E70" t="s">
+        <v>52</v>
+      </c>
+      <c r="F70" t="s">
+        <v>53</v>
+      </c>
+      <c r="G70" t="s">
+        <v>53</v>
+      </c>
+      <c r="H70" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="B71" t="s">
         <v>24</v>
       </c>
-      <c r="C70" t="n">
+      <c r="C71" t="n">
         <v>2.737</v>
       </c>
-      <c r="D70" t="s">
-        <v>102</v>
-      </c>
-      <c r="E70" t="s">
-        <v>103</v>
-      </c>
-      <c r="F70" t="s">
-        <v>71</v>
-      </c>
-      <c r="G70" t="s">
-        <v>71</v>
-      </c>
-      <c r="H70" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
-      <c r="A72" t="s">
+      <c r="D71" t="s">
         <v>104</v>
       </c>
+      <c r="E71" t="s">
+        <v>105</v>
+      </c>
+      <c r="F71" t="s">
+        <v>75</v>
+      </c>
+      <c r="G71" t="s">
+        <v>75</v>
+      </c>
+      <c r="H71" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="73" spans="1:8">
-      <c r="B73" t="s">
-        <v>105</v>
-      </c>
-      <c r="C73" t="n">
+      <c r="A73" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="B74" t="s">
+        <v>107</v>
+      </c>
+      <c r="C74" t="n">
         <v>2.529</v>
       </c>
-      <c r="D73" t="s">
+      <c r="D74" t="s">
         <v>21</v>
       </c>
-      <c r="E73" t="s">
-        <v>87</v>
-      </c>
-      <c r="F73" t="s">
+      <c r="E74" t="s">
+        <v>89</v>
+      </c>
+      <c r="F74" t="s">
         <v>21</v>
       </c>
-      <c r="G73" t="s">
-        <v>90</v>
-      </c>
-      <c r="H73" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
-      <c r="A75" t="s">
-        <v>106</v>
+      <c r="G74" t="s">
+        <v>92</v>
+      </c>
+      <c r="H74" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="76" spans="1:8">
-      <c r="B76" t="s">
-        <v>46</v>
-      </c>
-      <c r="C76" t="n">
+      <c r="A76" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="B77" t="s">
+        <v>50</v>
+      </c>
+      <c r="C77" t="n">
         <v>2.944</v>
       </c>
-      <c r="D76" t="s">
+      <c r="D77" t="s">
         <v>14</v>
       </c>
-      <c r="E76" t="s">
-        <v>107</v>
-      </c>
-      <c r="F76" t="s">
-        <v>108</v>
-      </c>
-      <c r="G76" t="s">
+      <c r="E77" t="s">
+        <v>109</v>
+      </c>
+      <c r="F77" t="s">
+        <v>45</v>
+      </c>
+      <c r="G77" t="s">
         <v>16</v>
       </c>
-      <c r="H76" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
-      <c r="A78" t="s">
-        <v>109</v>
+      <c r="H77" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="79" spans="1:8">
-      <c r="B79" t="s">
+      <c r="A79" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="B80" t="s">
         <v>13</v>
       </c>
-      <c r="C79" t="n">
+      <c r="C80" t="n">
         <v>3.6</v>
       </c>
-      <c r="D79" t="s">
-        <v>110</v>
-      </c>
-      <c r="E79" t="s">
-        <v>44</v>
-      </c>
-      <c r="F79" t="s">
-        <v>99</v>
-      </c>
-      <c r="G79" t="s">
-        <v>18</v>
-      </c>
-      <c r="H79" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
-      <c r="A81" t="s">
+      <c r="D80" t="s">
         <v>111</v>
       </c>
+      <c r="E80" t="s">
+        <v>48</v>
+      </c>
+      <c r="F80" t="s">
+        <v>101</v>
+      </c>
+      <c r="G80" t="s">
+        <v>18</v>
+      </c>
+      <c r="H80" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="82" spans="1:8">
-      <c r="B82" t="s">
+      <c r="A82" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
+      <c r="B83" t="s">
         <v>40</v>
       </c>
-      <c r="C82" t="n">
+      <c r="C83" t="n">
         <v>3.125</v>
       </c>
-      <c r="D82" t="s">
-        <v>112</v>
-      </c>
-      <c r="E82" t="s">
-        <v>47</v>
-      </c>
-      <c r="F82" t="s">
-        <v>49</v>
-      </c>
-      <c r="G82" t="s">
-        <v>18</v>
-      </c>
-      <c r="H82" t="s">
+      <c r="D83" t="s">
+        <v>113</v>
+      </c>
+      <c r="E83" t="s">
+        <v>51</v>
+      </c>
+      <c r="F83" t="s">
+        <v>53</v>
+      </c>
+      <c r="G83" t="s">
+        <v>18</v>
+      </c>
+      <c r="H83" t="s">
         <v>27</v>
       </c>
     </row>

--- a/GradeDistributionsDB/Summer2014/Output/Summer2014 EL.xlsx
+++ b/GradeDistributionsDB/Summer2014/Output/Summer2014 EL.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<s:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <s:workbookPr/>
-  <s:bookViews>
-    <s:workbookView activeTab="0"/>
-  </s:bookViews>
-  <s:sheets>
-    <s:sheet name="Sheet" sheetId="1" r:id="rId1"/>
-  </s:sheets>
-  <s:definedNames/>
-  <s:calcPr calcId="124519" fullCalcOnLoad="1"/>
-</s:workbook>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <bookViews>
+    <workbookView activeTab="0"/>
+  </bookViews>
+  <sheets>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+  </sheets>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+</workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="115">
   <si>
     <t>Course</t>
   </si>
@@ -40,6 +40,9 @@
     <t>% of F's</t>
   </si>
   <si>
+    <t>% of Q Drop's</t>
+  </si>
+  <si>
     <t>ELIC-100</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>35.29%</t>
   </si>
   <si>
+    <t>0.00%</t>
+  </si>
+  <si>
     <t>VERNON T</t>
   </si>
   <si>
@@ -68,9 +74,6 @@
   </si>
   <si>
     <t>5.56%</t>
-  </si>
-  <si>
-    <t>0.00%</t>
   </si>
   <si>
     <t>ELIC-200</t>
@@ -393,12 +396,11 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
@@ -692,15 +694,15 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H83"/>
+  <dimension ref="A1:I83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -725,930 +727,1038 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="B3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" t="n">
         <v>2.412</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
         <v>11</v>
       </c>
-      <c r="F3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" t="s">
-        <v>10</v>
-      </c>
       <c r="H3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>11</v>
+      </c>
+      <c r="I3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="B4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C4" t="n">
         <v>3.111</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="B7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C7" t="n">
         <v>2.941</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="n">
         <v>3.125</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G8" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="B9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C9" t="n">
         <v>2.562</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G9" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="I9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="B12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C12" t="n">
         <v>2.775</v>
       </c>
       <c r="D12" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G12" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H12" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="I12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="B15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C15" t="n">
         <v>2.818</v>
       </c>
       <c r="D15" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F15" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G15" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="B16" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C16" t="n">
         <v>2.727</v>
       </c>
       <c r="D16" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G16" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H16" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="B17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C17" t="n">
         <v>2</v>
       </c>
       <c r="D17" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E17" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="B18" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C18" t="n">
         <v>1.8</v>
       </c>
       <c r="D18" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E18" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H18" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>49</v>
+      </c>
+      <c r="I18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="B21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C21" t="n">
         <v>2.875</v>
       </c>
       <c r="D21" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E21" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F21" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G21" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H21" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I21" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="B24" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C24" t="n">
         <v>2.389</v>
       </c>
       <c r="D24" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" t="s">
+        <v>57</v>
+      </c>
+      <c r="F24" t="s">
+        <v>58</v>
+      </c>
+      <c r="G24" t="s">
         <v>18</v>
       </c>
-      <c r="E24" t="s">
-        <v>56</v>
-      </c>
-      <c r="F24" t="s">
-        <v>57</v>
-      </c>
-      <c r="G24" t="s">
-        <v>16</v>
-      </c>
       <c r="H24" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I24" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="B27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C27" t="n">
         <v>2.619</v>
       </c>
       <c r="D27" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E27" t="s">
+        <v>61</v>
+      </c>
+      <c r="F27" t="s">
+        <v>62</v>
+      </c>
+      <c r="G27" t="s">
         <v>60</v>
       </c>
-      <c r="F27" t="s">
-        <v>61</v>
-      </c>
-      <c r="G27" t="s">
-        <v>59</v>
-      </c>
       <c r="H27" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>60</v>
+      </c>
+      <c r="I27" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="B30" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C30" t="n">
         <v>2.533</v>
       </c>
       <c r="D30" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E30" t="s">
+        <v>65</v>
+      </c>
+      <c r="F30" t="s">
         <v>64</v>
       </c>
-      <c r="F30" t="s">
-        <v>63</v>
-      </c>
       <c r="G30" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H30" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>67</v>
+      </c>
+      <c r="I30" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="B33" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C33" t="n">
         <v>3.046</v>
       </c>
       <c r="D33" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E33" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F33" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G33" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H33" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="I33" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="B36" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C36" t="n">
         <v>3.21</v>
       </c>
       <c r="D36" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E36" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F36" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G36" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H36" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I36" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="B37" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C37" t="n">
         <v>2.316</v>
       </c>
       <c r="D37" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E37" t="s">
+        <v>77</v>
+      </c>
+      <c r="F37" t="s">
+        <v>77</v>
+      </c>
+      <c r="G37" t="s">
         <v>76</v>
       </c>
-      <c r="F37" t="s">
-        <v>76</v>
-      </c>
-      <c r="G37" t="s">
+      <c r="H37" t="s">
         <v>75</v>
       </c>
-      <c r="H37" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+      <c r="I37" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="B40" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C40" t="n">
         <v>2.375</v>
       </c>
       <c r="D40" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E40" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F40" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>54</v>
+      </c>
+      <c r="I40" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="B43" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C43" t="n">
         <v>2.5</v>
       </c>
       <c r="D43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F43" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G43" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H43" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="B46" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C46" t="n">
         <v>3.25</v>
       </c>
       <c r="D46" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E46" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F46" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G46" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H46" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I46" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="B49" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C49" t="n">
         <v>2.7</v>
       </c>
       <c r="D49" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E49" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F49" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G49" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>48</v>
+      </c>
+      <c r="I49" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="B50" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C50" t="n">
         <v>2.111</v>
       </c>
       <c r="D50" t="s">
+        <v>14</v>
+      </c>
+      <c r="E50" t="s">
+        <v>88</v>
+      </c>
+      <c r="F50" t="s">
         <v>18</v>
       </c>
-      <c r="E50" t="s">
-        <v>87</v>
-      </c>
-      <c r="F50" t="s">
-        <v>16</v>
-      </c>
       <c r="G50" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H50" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I50" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="B53" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C53" t="n">
         <v>2.059</v>
       </c>
       <c r="D53" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E53" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F53" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G53" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H53" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="I53" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="B54" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C54" t="n">
         <v>2.688</v>
       </c>
       <c r="D54" t="s">
+        <v>28</v>
+      </c>
+      <c r="E54" t="s">
         <v>27</v>
       </c>
-      <c r="E54" t="s">
-        <v>26</v>
-      </c>
       <c r="F54" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G54" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H54" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="I54" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="B57" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C57" t="n">
         <v>2.4855</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F57" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G57" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H57" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="I57" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="B60" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C60" t="n">
         <v>1.867</v>
       </c>
       <c r="D60" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E60" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F60" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G60" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H60" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I60" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="B63" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C63" t="n">
         <v>3.435</v>
       </c>
       <c r="D63" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E63" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F63" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G63" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H63" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I63" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="B64" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C64" t="n">
         <v>2.571</v>
       </c>
       <c r="D64" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E64" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F64" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G64" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H64" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I64" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="B67" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C67" t="n">
         <v>3</v>
       </c>
       <c r="D67" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E67" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F67" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H67" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>102</v>
+      </c>
+      <c r="I67" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="B70" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C70" t="n">
         <v>2.625</v>
       </c>
       <c r="D70" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E70" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F70" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G70" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H70" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>54</v>
+      </c>
+      <c r="I70" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="B71" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C71" t="n">
         <v>2.737</v>
       </c>
       <c r="D71" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E71" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F71" t="s">
+        <v>76</v>
+      </c>
+      <c r="G71" t="s">
+        <v>76</v>
+      </c>
+      <c r="H71" t="s">
         <v>75</v>
       </c>
-      <c r="G71" t="s">
-        <v>75</v>
-      </c>
-      <c r="H71" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+      <c r="I71" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="B74" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C74" t="n">
         <v>2.529</v>
       </c>
       <c r="D74" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E74" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F74" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G74" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H74" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I74" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="B77" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C77" t="n">
         <v>2.944</v>
       </c>
       <c r="D77" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E77" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F77" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G77" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H77" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I77" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="B80" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C80" t="n">
         <v>3.6</v>
       </c>
       <c r="D80" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E80" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F80" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G80" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H80" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I80" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="B83" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C83" t="n">
         <v>3.125</v>
       </c>
       <c r="D83" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E83" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F83" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G83" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H83" t="s">
-        <v>27</v>
+        <v>28</v>
+      </c>
+      <c r="I83" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
